--- a/log_all.xlsx
+++ b/log_all.xlsx
@@ -401,10 +401,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.1082789115646258</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B3">
-        <v>0.8917210884353741</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -425,10 +425,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.5214703856749311</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="B6">
-        <v>0.4785296143250689</v>
+        <v>0.4380952380952381</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -465,18 +465,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.1</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -489,18 +489,18 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.2914430351197919</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="B14">
-        <v>0.7085569648802079</v>
+        <v>0.6761904761904762</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.4826945823999115</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="B15">
-        <v>0.5173054176000885</v>
+        <v>0.5904761904761905</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -513,10 +513,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.1505</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B17">
-        <v>0.8495</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -529,42 +529,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.3294501740361487</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="B19">
-        <v>0.6705498259638515</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.5917416951974471</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="B20">
-        <v>0.408258304802553</v>
+        <v>0.4095238095238095</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.5450214183204917</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="B21">
-        <v>0.4549785816795084</v>
+        <v>0.4476190476190476</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.3816998341625207</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="B22">
-        <v>0.6183001658374793</v>
+        <v>0.5619047619047619</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.5858378315791157</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="B23">
-        <v>0.4141621684208843</v>
+        <v>0.4190476190476191</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -577,10 +577,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.3658610984045194</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B25">
-        <v>0.6341389015954806</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -593,10 +593,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1664901833888072</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B27">
-        <v>0.8335098166111925</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -617,10 +617,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.1118571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="B30">
-        <v>0.888142857142857</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -641,74 +641,74 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.3568652021705108</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B33">
-        <v>0.6431347978294891</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.1648429759330088</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B34">
-        <v>0.8351570240669912</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.22125</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B35">
-        <v>0.7787500000000001</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.3766392354827138</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="B36">
-        <v>0.6233607645172863</v>
+        <v>0.580952380952381</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.2612200269840134</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B37">
-        <v>0.7387799730159864</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.2025</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B38">
-        <v>0.7975</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.4997359224293522</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B39">
-        <v>0.5002640775706477</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.07659576138147567</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="B40">
-        <v>0.9234042386185243</v>
+        <v>0.9428571428571428</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.4355286237571952</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B41">
-        <v>0.5644713762428047</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -721,10 +721,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.13</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="B43">
-        <v>0.87</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -737,58 +737,58 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.4695355325407755</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B45">
-        <v>0.5304644674592245</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.6283171579184481</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="B46">
-        <v>0.3716828420815518</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.2686239063716791</v>
+        <v>0.4</v>
       </c>
       <c r="B47">
-        <v>0.7313760936283207</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.6403635402376382</v>
+        <v>0.7047619047619048</v>
       </c>
       <c r="B48">
-        <v>0.3596364597623619</v>
+        <v>0.2952380952380952</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.3556567885249673</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B49">
-        <v>0.6443432114750326</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.6153500687840809</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="B50">
-        <v>0.3846499312159191</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.4724846572524193</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="B51">
-        <v>0.5275153427475806</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -801,26 +801,26 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.3422882530344875</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B53">
-        <v>0.6577117469655126</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.248241591703491</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B54">
-        <v>0.7517584082965088</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.11</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="B55">
-        <v>0.89</v>
+        <v>0.8952380952380953</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -833,26 +833,26 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>0.1300959336912022</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="B57">
-        <v>0.8699040663087978</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0.3933294117647058</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="B58">
-        <v>0.6066705882352942</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>0.1414894378804153</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B59">
-        <v>0.8585105621195847</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -881,34 +881,34 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>0.2703901080857438</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B63">
-        <v>0.7296098919142561</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0.1096166666666667</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="B64">
-        <v>0.8903833333333333</v>
+        <v>0.8476190476190476</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0.0604</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="B65">
-        <v>0.9396000000000001</v>
+        <v>0.8380952380952381</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>0.2450150358663786</v>
+        <v>0.2</v>
       </c>
       <c r="B66">
-        <v>0.7549849641336214</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -929,42 +929,42 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>0.0006122448979591836</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>0.9993877551020408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>0.3466111111111111</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="B70">
-        <v>0.6533888888888889</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>0.4964162519635138</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B71">
-        <v>0.5035837480364863</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>0.7827764997590887</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="B72">
-        <v>0.2172235002409113</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.330620524557607</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="B73">
-        <v>0.6693794754423927</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -977,18 +977,18 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>0.6593333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B75">
-        <v>0.3406666666666666</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>0.2996861471861472</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B76">
-        <v>0.7003138528138528</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>0.44</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="B78">
-        <v>0.5600000000000001</v>
+        <v>0.5904761904761905</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1017,34 +1017,34 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>0.3175742359520095</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B80">
-        <v>0.6824257640479905</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>0.414562898750031</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="B81">
-        <v>0.5854371012499692</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>0.1285769230769231</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="B82">
-        <v>0.871423076923077</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>0.3472442077848851</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B83">
-        <v>0.6527557922151149</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1065,18 +1065,18 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>0.8202974248897432</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="B86">
-        <v>0.1797025751102569</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>0.3830552018602323</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="B87">
-        <v>0.6169447981397677</v>
+        <v>0.580952380952381</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1089,34 +1089,34 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>0.3550079722316031</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B89">
-        <v>0.6449920277683968</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>0.21</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B90">
-        <v>0.79</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>0.4666882758276479</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="B91">
-        <v>0.5333117241723521</v>
+        <v>0.3904761904761905</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>0.51994356588485</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="B92">
-        <v>0.4800564341151499</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1137,10 +1137,10 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>0.2078826298701299</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B95">
-        <v>0.7921173701298702</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1153,18 +1153,18 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>0.7011151575026277</v>
+        <v>0.8</v>
       </c>
       <c r="B97">
-        <v>0.2988848424973722</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>0.5140705738705739</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="B98">
-        <v>0.4859294261294261</v>
+        <v>0.5523809523809524</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1193,10 +1193,10 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>0.1755681818181818</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B102">
-        <v>0.8244318181818181</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1257,10 +1257,10 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>0.5597212021039379</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="B110">
-        <v>0.4402787978960621</v>
+        <v>0.4095238095238095</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1273,10 +1273,10 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>0.1855681818181818</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B112">
-        <v>0.8144318181818181</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1289,10 +1289,10 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>0.2836816886816886</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B114">
-        <v>0.7163183113183113</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1321,10 +1321,10 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>0.4049691370706055</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B118">
-        <v>0.5950308629293946</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1337,34 +1337,34 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>0.1883919925979887</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B120">
-        <v>0.8116080074020112</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>0.3226633690390776</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B121">
-        <v>0.6773366309609224</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>0.2361742424242424</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="B122">
-        <v>0.7638257575757575</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>0.292</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B123">
-        <v>0.708</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1377,26 +1377,26 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>0.4717179001554002</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="B125">
-        <v>0.5282820998445998</v>
+        <v>0.5047619047619047</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>0.3800846681922196</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B126">
-        <v>0.6199153318077804</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>0.677297288247184</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B127">
-        <v>0.3227027117528161</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1417,26 +1417,26 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>0.288481240981241</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B130">
-        <v>0.7115187590187592</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B131">
-        <v>0.915</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>0.2825036865986064</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B132">
-        <v>0.7174963134013936</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1449,10 +1449,10 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>0.325486508827793</v>
+        <v>0.4</v>
       </c>
       <c r="B134">
-        <v>0.6745134911722072</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1465,18 +1465,18 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>0.6540824647462722</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="B136">
-        <v>0.3459175352537279</v>
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>0.305</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B137">
-        <v>0.695</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1489,10 +1489,10 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>0.1115797758791365</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B139">
-        <v>0.8884202241208635</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1505,10 +1505,10 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>0.5929781629521461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B141">
-        <v>0.4070218370478538</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1529,18 +1529,18 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>0.2341587301587301</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B144">
-        <v>0.7658412698412698</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>0.2625</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B145">
-        <v>0.7375</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1553,10 +1553,10 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>0.0529</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="B147">
-        <v>0.9471000000000001</v>
+        <v>0.9809523809523809</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1569,18 +1569,18 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>0.7032036815243669</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="B149">
-        <v>0.2967963184756334</v>
+        <v>0.3523809523809524</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>0.1281292298331957</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B150">
-        <v>0.8718707701668041</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1593,26 +1593,26 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>0.1885714285714286</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B152">
-        <v>0.8114285714285714</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>0.2106122448979592</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="B153">
-        <v>0.7893877551020408</v>
+        <v>0.8380952380952381</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>0.1324242424242424</v>
+        <v>0.2</v>
       </c>
       <c r="B154">
-        <v>0.8675757575757576</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1641,18 +1641,18 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>0.2939236046704077</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B158">
-        <v>0.7060763953295922</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>0.53</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="B159">
-        <v>0.47</v>
+        <v>0.4190476190476191</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1673,10 +1673,10 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>0.2743452380952381</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="B162">
-        <v>0.7256547619047619</v>
+        <v>0.6761904761904762</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1721,42 +1721,42 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>0.1108809523809524</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="B168">
-        <v>0.8891190476190477</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>0.5100643085959541</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="B169">
-        <v>0.4899356914040459</v>
+        <v>0.6095238095238096</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>0.2287315332780805</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B170">
-        <v>0.7712684667219194</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>0.2200559818238192</v>
+        <v>0.2</v>
       </c>
       <c r="B171">
-        <v>0.7799440181761806</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>0.1132151924872513</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="B172">
-        <v>0.8867848075127485</v>
+        <v>0.8285714285714286</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1769,10 +1769,10 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>0.2427626799566528</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B174">
-        <v>0.7572373200433472</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1793,18 +1793,18 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>0.2860057471264367</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B177">
-        <v>0.7139942528735631</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>0.7458818905401805</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B178">
-        <v>0.2541181094598192</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1825,26 +1825,26 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>0.1305</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="B181">
-        <v>0.8695000000000001</v>
+        <v>0.9142857142857143</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>0.03419270780826326</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B182">
-        <v>0.9658072921917368</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>0.2440863075924724</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B183">
-        <v>0.7559136924075276</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1873,26 +1873,26 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>0.3116480989789431</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="B187">
-        <v>0.688351901021057</v>
+        <v>0.5619047619047619</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>0.1011437908496732</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="B188">
-        <v>0.8988562091503267</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>0.2691260131325258</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="B189">
-        <v>0.7308739868674742</v>
+        <v>0.5619047619047619</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1913,26 +1913,26 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>0.6833268679474491</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="B192">
-        <v>0.3166731320525507</v>
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>0.6234114637403497</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="B193">
-        <v>0.3765885362596503</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>0.5488147426458503</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="B194">
-        <v>0.4511852573541497</v>
+        <v>0.4095238095238095</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1945,10 +1945,10 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>0.3442303807938819</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B196">
-        <v>0.6557696192061181</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1961,10 +1961,10 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>0.3383076298701299</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B198">
-        <v>0.6616923701298701</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1977,74 +1977,74 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>0.152</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B200">
-        <v>0.848</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>0.6874180048806916</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="B201">
-        <v>0.3125819951193086</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>0.6702878787878788</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="B202">
-        <v>0.3297121212121212</v>
+        <v>0.4095238095238095</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>0.137348948428778</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="B203">
-        <v>0.8626510515712219</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>0.2814338702296484</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B204">
-        <v>0.7185661297703515</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>0.3506492822966508</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B205">
-        <v>0.6493507177033493</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>0.2093438826770377</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B206">
-        <v>0.7906561173229621</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>0.3482472222222223</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="B207">
-        <v>0.6517527777777778</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>0.1614285714285714</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B208">
-        <v>0.8385714285714286</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2057,18 +2057,18 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>0.3710095053534782</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="B210">
-        <v>0.6289904946465217</v>
+        <v>0.6476190476190476</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>0.3327719573055258</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="B211">
-        <v>0.6672280426944742</v>
+        <v>0.6095238095238096</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2081,18 +2081,18 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>0.1993217538419327</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B213">
-        <v>0.8006782461580673</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>0.3650416154604134</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B214">
-        <v>0.6349583845395866</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2129,42 +2129,42 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>0.3428381294808724</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="B219">
-        <v>0.6571618705191276</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>0.2891963711348964</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="B220">
-        <v>0.7108036288651036</v>
+        <v>0.5904761904761905</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>0.1218373042881064</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="B221">
-        <v>0.8781626957118935</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>0.4143719051021361</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B222">
-        <v>0.5856280948978639</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>0.7621991969383274</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B223">
-        <v>0.2378008030616726</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2185,10 +2185,10 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>0.0827857609741792</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B226">
-        <v>0.9172142390258206</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2201,34 +2201,34 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>0.2572470238095239</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B228">
-        <v>0.7427529761904762</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>0.3336607381803649</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B229">
-        <v>0.6663392618196352</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>0.2884228359544815</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="B230">
-        <v>0.7115771640455185</v>
+        <v>0.5523809523809524</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>0.5504892295172753</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="B231">
-        <v>0.4495107704827248</v>
+        <v>0.5047619047619047</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2257,18 +2257,18 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>0.3492623716153128</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B235">
-        <v>0.6507376283846873</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>0.4130233265720081</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B236">
-        <v>0.5869766734279919</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2281,42 +2281,42 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>0.5366068702022603</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="B238">
-        <v>0.4633931297977397</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>0.6749668474984931</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="B239">
-        <v>0.3250331525015069</v>
+        <v>0.3523809523809524</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>0.2108333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B240">
-        <v>0.7891666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>0.5311698113207547</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="B241">
-        <v>0.4688301886792453</v>
+        <v>0.4476190476190476</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>0.2224872448979592</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="B242">
-        <v>0.7775127551020408</v>
+        <v>0.8476190476190476</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2329,18 +2329,18 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>0.1526428571428571</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B244">
-        <v>0.8473571428571429</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>0.446090871472556</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="B245">
-        <v>0.5539091285274441</v>
+        <v>0.3523809523809524</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2369,10 +2369,10 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>0.2164287749287749</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B249">
-        <v>0.7835712250712251</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2385,18 +2385,18 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>0.05166666666666666</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B251">
-        <v>0.9483333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>0.1065557521985726</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B252">
-        <v>0.8934442478014273</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2417,42 +2417,42 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>0.265173366273305</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B255">
-        <v>0.7348266337266951</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>0.2225</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B256">
-        <v>0.7775</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>0.4755049754195138</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B257">
-        <v>0.5244950245804862</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>0.1708712121212121</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="B258">
-        <v>0.8291287878787879</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>0.2863786324786325</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B259">
-        <v>0.7136213675213675</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2473,10 +2473,10 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>0.2320408163265306</v>
+        <v>0.2</v>
       </c>
       <c r="B262">
-        <v>0.7679591836734694</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2489,34 +2489,34 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>0.6872973652854572</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="B264">
-        <v>0.3127026347145428</v>
+        <v>0.2761904761904762</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>0.3200469340785796</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B265">
-        <v>0.6799530659214205</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>0.24</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="B266">
-        <v>0.76</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>0.4781472546007651</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="B267">
-        <v>0.5218527453992349</v>
+        <v>0.4952380952380953</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2529,10 +2529,10 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>0.4062899081592872</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="B269">
-        <v>0.5937100918407128</v>
+        <v>0.4190476190476191</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2545,18 +2545,18 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>0.3430627724023689</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="B271">
-        <v>0.6569372275976311</v>
+        <v>0.638095238095238</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>0.2747052402260511</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="B272">
-        <v>0.7252947597739489</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2569,34 +2569,34 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>0.287</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B274">
-        <v>0.713</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>0.5200638628273976</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B275">
-        <v>0.4799361371726024</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>0.3248428571428571</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B276">
-        <v>0.6751571428571428</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>0.3027630683294928</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B277">
-        <v>0.6972369316705069</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2609,10 +2609,10 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>0.570911140409918</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="B279">
-        <v>0.429088859590082</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2625,18 +2625,18 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>0.3100471827023552</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B281">
-        <v>0.6899528172976447</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>0.1610214608704451</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="B282">
-        <v>0.8389785391295548</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2649,10 +2649,10 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>0.4756423688238454</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="B284">
-        <v>0.5243576311761547</v>
+        <v>0.4952380952380953</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2665,26 +2665,26 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>0.4900528026273612</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="B286">
-        <v>0.5099471973726389</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>0.2639969084421484</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B287">
-        <v>0.7360030915578514</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>0.1336571428571429</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="B288">
-        <v>0.8663428571428571</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2697,26 +2697,26 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>0.2196921134421135</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B290">
-        <v>0.7803078865578865</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>0.4781133521180634</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="B291">
-        <v>0.5218866478819366</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>0.2603573072157611</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B292">
-        <v>0.739642692784239</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2737,18 +2737,18 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>0.4172592399795563</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="B295">
-        <v>0.5827407600204437</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>0.4807763713080169</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B296">
-        <v>0.5192236286919831</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2777,58 +2777,58 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>0.2809318667471403</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="B300">
-        <v>0.7190681332528593</v>
+        <v>0.6476190476190476</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>0.2301122994652407</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B301">
-        <v>0.7698877005347593</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="B302">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>0.23</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B303">
-        <v>0.77</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>0.3674455311939636</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B304">
-        <v>0.6325544688060364</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>0.1947389049928295</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B305">
-        <v>0.8052610950071706</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>0.7713166887936626</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="B306">
-        <v>0.2286833112063376</v>
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2841,26 +2841,26 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>0.1917725490196078</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B308">
-        <v>0.8082274509803922</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>0.7698009243009243</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="B309">
-        <v>0.2301990756990757</v>
+        <v>0.2476190476190476</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>0.2045</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B310">
-        <v>0.7955</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2937,10 +2937,10 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>0.6555558359181402</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="B320">
-        <v>0.3444441640818598</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2961,10 +2961,10 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>0.5956192182620175</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="B323">
-        <v>0.4043807817379825</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2985,42 +2985,42 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>0.26</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="B326">
-        <v>0.74</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>0.16</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="B327">
-        <v>0.84</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>0.6282516113493272</v>
+        <v>0.6</v>
       </c>
       <c r="B328">
-        <v>0.3717483886506727</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>0.3222571145392345</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B329">
-        <v>0.6777428854607654</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>0.764623406462055</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B330">
-        <v>0.2353765935379453</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3033,10 +3033,10 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>0.226802442002442</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B332">
-        <v>0.773197557997558</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3049,10 +3049,10 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>0.2674836823041283</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B334">
-        <v>0.7325163176958717</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3065,18 +3065,18 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>0.7492565147271031</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="B336">
-        <v>0.250743485272897</v>
+        <v>0.2761904761904762</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>0.5602490591727407</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="B337">
-        <v>0.4397509408272592</v>
+        <v>0.6095238095238096</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3105,10 +3105,10 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>0.03723046504172433</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="B341">
-        <v>0.9627695349582757</v>
+        <v>0.9238095238095239</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3129,50 +3129,50 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>0.02621818181818182</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="B344">
-        <v>0.9737818181818182</v>
+        <v>0.9809523809523809</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>0.7023353620698739</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="B345">
-        <v>0.2976646379301261</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>0.06131598893889733</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="B346">
-        <v>0.9386840110611026</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>0.2025</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="B347">
-        <v>0.7975</v>
+        <v>0.8380952380952381</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>0.4207451923076924</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="B348">
-        <v>0.5792548076923076</v>
+        <v>0.6476190476190476</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>0.08329723505104521</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="B349">
-        <v>0.9167027649489548</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3201,26 +3201,26 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>0.5643213158858772</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B353">
-        <v>0.4356786841141229</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>0.2738461538461539</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B354">
-        <v>0.7261538461538461</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>0.2011875785972171</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B355">
-        <v>0.7988124214027829</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3233,10 +3233,10 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>0.1423207651044608</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="B357">
-        <v>0.8576792348955393</v>
+        <v>0.8476190476190476</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3249,18 +3249,18 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>0.7050260180995473</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="B359">
-        <v>0.2949739819004525</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>0.1065392351609743</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="B360">
-        <v>0.8934607648390256</v>
+        <v>0.9619047619047619</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3281,26 +3281,26 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>0.2897723117024588</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B363">
-        <v>0.7102276882975412</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>0.2644791018887405</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B364">
-        <v>0.7355208981112594</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>0.04321428571428571</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="B365">
-        <v>0.9567857142857144</v>
+        <v>0.9714285714285714</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3337,10 +3337,10 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>0.6818649236084395</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="B370">
-        <v>0.3181350763915605</v>
+        <v>0.3904761904761905</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3353,42 +3353,42 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>0.3395586709506588</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="B372">
-        <v>0.6604413290493412</v>
+        <v>0.6761904761904762</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>0.1462771929824561</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B373">
-        <v>0.8537228070175439</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>0.6677474765537723</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="B374">
-        <v>0.3322525234462277</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>0.4833333333333333</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="B375">
-        <v>0.5166666666666667</v>
+        <v>0.5047619047619047</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>0.3765492932243505</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="B376">
-        <v>0.6234507067756495</v>
+        <v>0.5523809523809524</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3401,10 +3401,10 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>0.233021978021978</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B378">
-        <v>0.766978021978022</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3425,10 +3425,10 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>0.629949834258042</v>
+        <v>0.6</v>
       </c>
       <c r="B381">
-        <v>0.370050165741958</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3441,10 +3441,10 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>0.2613008055308255</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B383">
-        <v>0.7386991944691745</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3465,10 +3465,10 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>0.6418331497255519</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="B386">
-        <v>0.3581668502744479</v>
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3481,10 +3481,10 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>0.4495482401656314</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B388">
-        <v>0.5504517598343687</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3497,10 +3497,10 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>0.693026030614266</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="B390">
-        <v>0.306973969385734</v>
+        <v>0.2761904761904762</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3521,26 +3521,26 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>0.6718209274680345</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B393">
-        <v>0.3281790725319655</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>0.184799358974359</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="B394">
-        <v>0.815200641025641</v>
+        <v>0.8285714285714286</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>0.1999465897304606</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="B395">
-        <v>0.8000534102695391</v>
+        <v>0.8380952380952381</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3553,18 +3553,18 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>0.2614097222222222</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B397">
-        <v>0.7385902777777776</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>0.1118552188552188</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B398">
-        <v>0.888144781144781</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3577,10 +3577,10 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>0.6373507038182687</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="B400">
-        <v>0.3626492961817311</v>
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3593,18 +3593,18 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>0.5411687986653937</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="B402">
-        <v>0.4588312013346062</v>
+        <v>0.4952380952380953</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>0.3850097821117195</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="B403">
-        <v>0.6149902178882803</v>
+        <v>0.6095238095238096</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3633,58 +3633,58 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>0.2983065783478587</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B407">
-        <v>0.7016934216521412</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>0.4592285714285714</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B408">
-        <v>0.5407714285714286</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>0.1218124598514973</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="B409">
-        <v>0.8781875401485028</v>
+        <v>0.8476190476190476</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>0.2566666666666667</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B410">
-        <v>0.7433333333333334</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>0.1356122448979592</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B411">
-        <v>0.8643877551020408</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>0.639501685757153</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="B412">
-        <v>0.3604983142428468</v>
+        <v>0.4380952380952381</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>0.1516666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B413">
-        <v>0.8483333333333333</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3721,10 +3721,10 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>0.8084090254574364</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B418">
-        <v>0.1915909745425634</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3737,10 +3737,10 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>0.1622681038354093</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B420">
-        <v>0.8377318961645905</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3753,10 +3753,10 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>0.08743589743589744</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B422">
-        <v>0.9125641025641025</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3769,34 +3769,34 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>0.8322173227142503</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B424">
-        <v>0.1677826772857497</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>0.5906303431663555</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="B425">
-        <v>0.4093696568336443</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>0.4714933447878217</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="B426">
-        <v>0.5285066552121782</v>
+        <v>0.5523809523809524</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>0.3281389226636947</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="B427">
-        <v>0.6718610773363052</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3817,10 +3817,10 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>0.2762105238968013</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="B430">
-        <v>0.7237894761031984</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3841,10 +3841,10 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>0.2316517857142857</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B433">
-        <v>0.7683482142857143</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3857,18 +3857,18 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>0.2563853535353535</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="B435">
-        <v>0.7436146464646464</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>0.2911463675213675</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B436">
-        <v>0.7088536324786324</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3881,10 +3881,10 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>0.4525288210775027</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B438">
-        <v>0.5474711789224973</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3913,34 +3913,34 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>0.5073333333333333</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="B442">
-        <v>0.4926666666666666</v>
+        <v>0.4380952380952381</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>0.1218868878551135</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B443">
-        <v>0.8781131121448864</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>0.1752460517693964</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="B444">
-        <v>0.8247539482306036</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>0.4864617903511009</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="B445">
-        <v>0.513538209648899</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3977,10 +3977,10 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>0.1099376765276928</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B450">
-        <v>0.890062323472307</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4025,10 +4025,10 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>0.5241360808889552</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="B456">
-        <v>0.4758639191110447</v>
+        <v>0.5523809523809524</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4041,10 +4041,10 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>0.1257142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B458">
-        <v>0.8742857142857143</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4089,18 +4089,18 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>0.4142277863116572</v>
+        <v>0.4</v>
       </c>
       <c r="B464">
-        <v>0.5857722136883428</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>0.1395666666666667</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="B465">
-        <v>0.8604333333333334</v>
+        <v>0.7904761904761904</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4113,18 +4113,18 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>0.09</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="B467">
-        <v>0.91</v>
+        <v>0.9238095238095239</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>0.2422678300931674</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B468">
-        <v>0.7577321699068327</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4145,18 +4145,18 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>0.3213219585632427</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="B471">
-        <v>0.6786780414367573</v>
+        <v>0.7238095238095238</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>0.08916666666666666</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B472">
-        <v>0.9108333333333333</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>0.228135592591723</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B475">
-        <v>0.7718644074082771</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4209,26 +4209,26 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B479">
-        <v>0.95</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>0.0766328343114243</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="B480">
-        <v>0.9233671656885754</v>
+        <v>0.8476190476190476</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>0.4578354978354979</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B481">
-        <v>0.5421645021645021</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4241,10 +4241,10 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>0.1033928571428571</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="B483">
-        <v>0.8966071428571429</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4281,10 +4281,10 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>0.2047337322355298</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B488">
-        <v>0.7952662677644703</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4297,10 +4297,10 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>0.1765095238095238</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B490">
-        <v>0.8234904761904761</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4321,26 +4321,26 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>0.2095520363260974</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="B493">
-        <v>0.7904479636739024</v>
+        <v>0.780952380952381</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>0.1589262041166347</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B494">
-        <v>0.8410737958833652</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>0.6774889191120336</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="B495">
-        <v>0.3225110808879665</v>
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4369,58 +4369,58 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>0.2609532053804781</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B499">
-        <v>0.7390467946195219</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500">
-        <v>0.2725285424781332</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="B500">
-        <v>0.7274714575218669</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501">
-        <v>0.167007226891466</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B501">
-        <v>0.832992773108534</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>0.4018944673158383</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="B502">
-        <v>0.5981055326841617</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>0.2725</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B503">
-        <v>0.7275</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>0.1134939209726444</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B504">
-        <v>0.8865060790273557</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505">
-        <v>0.4656700593218432</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="B505">
-        <v>0.5343299406781568</v>
+        <v>0.4952380952380953</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4433,10 +4433,10 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507">
-        <v>0.3020473896473897</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B507">
-        <v>0.6979526103526104</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4449,18 +4449,18 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509">
-        <v>0.6688031874032044</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="B509">
-        <v>0.3311968125967955</v>
+        <v>0.3619047619047619</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>0.5137549283036098</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="B510">
-        <v>0.4862450716963902</v>
+        <v>0.5523809523809524</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4473,18 +4473,18 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512">
-        <v>0.439287483748055</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="B512">
-        <v>0.5607125162519448</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513">
-        <v>0.5454498786596855</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B513">
-        <v>0.4545501213403145</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4497,10 +4497,10 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515">
-        <v>0.09136408469723978</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B515">
-        <v>0.9086359153027601</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4513,18 +4513,18 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517">
-        <v>0.242636010541183</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="B517">
-        <v>0.757363989458817</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518">
-        <v>0.3490081917339939</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="B518">
-        <v>0.6509918082660061</v>
+        <v>0.6095238095238096</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4537,50 +4537,50 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520">
-        <v>0.7560776592026593</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B520">
-        <v>0.2439223407973408</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>0.4442779720279721</v>
+        <v>0.6</v>
       </c>
       <c r="B521">
-        <v>0.555722027972028</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>0.2205392597439893</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="B522">
-        <v>0.7794607402560105</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>0.06138147566718995</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B523">
-        <v>0.93861852433281</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>0.38</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="B524">
-        <v>0.62</v>
+        <v>0.6476190476190476</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>0.6701208175420184</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="B525">
-        <v>0.3298791824579817</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4609,10 +4609,10 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529">
-        <v>0.6339928092393846</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="B529">
-        <v>0.3660071907606153</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4625,42 +4625,42 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531">
-        <v>0.5450498470426201</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="B531">
-        <v>0.4549501529573799</v>
+        <v>0.4190476190476191</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532">
-        <v>0.1325101380903238</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="B532">
-        <v>0.8674898619096763</v>
+        <v>0.8952380952380953</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533">
-        <v>0.3091769481183357</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B533">
-        <v>0.6908230518816643</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>0.4974824790268256</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="B534">
-        <v>0.5025175209731745</v>
+        <v>0.4380952380952381</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535">
-        <v>0.1434815295815296</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B535">
-        <v>0.8565184704184705</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4681,18 +4681,18 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538">
-        <v>0.4780988191246069</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="B538">
-        <v>0.5219011808753931</v>
+        <v>0.4095238095238095</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>0.5295342095342096</v>
+        <v>0.4</v>
       </c>
       <c r="B539">
-        <v>0.4704657904657904</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4705,10 +4705,10 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>0.3080518925518925</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="B541">
-        <v>0.6919481074481075</v>
+        <v>0.6761904761904762</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4745,10 +4745,10 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546">
-        <v>0.3678782894736842</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B546">
-        <v>0.6321217105263158</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4801,26 +4801,26 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>0.06</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B553">
-        <v>0.9399999999999999</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554">
-        <v>0.3227142857142857</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B554">
-        <v>0.6772857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555">
-        <v>0.07605148248463757</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B555">
-        <v>0.9239485175153626</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4833,26 +4833,26 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>0.295999018248202</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B557">
-        <v>0.7040009817517979</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>0.1163609168609168</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="B558">
-        <v>0.8836390831390831</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>0.3589563983488131</v>
+        <v>0.4</v>
       </c>
       <c r="B559">
-        <v>0.6410436016511868</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4865,10 +4865,10 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>0.1611122448979592</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="B561">
-        <v>0.8388877551020408</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4881,18 +4881,18 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>0.1896586868790069</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="B563">
-        <v>0.8103413131209932</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>0.1630681818181818</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="B564">
-        <v>0.8369318181818182</v>
+        <v>0.7523809523809524</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4905,10 +4905,10 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>0.5908449892777624</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="B566">
-        <v>0.4091550107222377</v>
+        <v>0.4476190476190476</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4929,18 +4929,18 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>0.145</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="B569">
-        <v>0.855</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>0.5261042438711836</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B570">
-        <v>0.4738957561288164</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4953,26 +4953,26 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>0.4434223197539627</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="B572">
-        <v>0.5565776802460373</v>
+        <v>0.5047619047619047</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>0.3002508252818036</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="B573">
-        <v>0.6997491747181964</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>0.2876808191808192</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="B574">
-        <v>0.7123191808191808</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4985,18 +4985,18 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>0.6887100171466749</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="B576">
-        <v>0.3112899828533252</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>0.02333333333333333</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="B577">
-        <v>0.9766666666666667</v>
+        <v>0.9904761904761905</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5009,18 +5009,18 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>0.5095883838383838</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="B579">
-        <v>0.4904116161616162</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>0.518918081449727</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="B580">
-        <v>0.481081918550273</v>
+        <v>0.4476190476190476</v>
       </c>
     </row>
     <row r="581" spans="1:2">
